--- a/health_backend/target/health_backend-1.0-SNAPSHOT/template/report_template.xlsx
+++ b/health_backend/target/health_backend-1.0-SNAPSHOT/template/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,12 +92,25 @@
   <si>
     <t>热门套餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>入职无忧体检套餐（男女通用）</t>
+  </si>
+  <si>
+    <t>阳光爸妈升级肿瘤12项筛查（男女单人）体检套餐</t>
+  </si>
+  <si>
+    <t>粉红珍爱(女)升级TM12项筛查体检套餐</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -582,11 +595,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:11" ht="77.400000000000006" customHeight="1">
@@ -601,7 +614,9 @@
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
@@ -617,22 +632,30 @@
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="n">
+        <v>13.0</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="5:11" ht="20.399999999999999">
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7" spans="5:11" ht="28.2">
       <c r="E7" s="9" t="s">
@@ -646,31 +669,43 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9" spans="5:11" ht="20.399999999999999">
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="n">
+        <v>3.0</v>
+      </c>
       <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10" spans="5:11" ht="20.399999999999999">
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="n">
+        <v>3.0</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11" spans="5:11" ht="28.2">
       <c r="E11" s="9" t="s">
@@ -695,21 +730,39 @@
       </c>
     </row>
     <row r="13" spans="5:11" ht="20.399999999999999">
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="5:11" ht="20.399999999999999">
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0.25</v>
+      </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="5:11" ht="20.399999999999999">
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0.25</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="5:11" ht="20.399999999999999">
